--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/AgeAtRecruitment</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/AgeAtRecruitment</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Age At Recruitment Extension</t>
+    <t>Patient's age (in days since birth) at the time of recruitment</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -123,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ClinicalImpression</t>
   </si>
   <si>
     <t>ID</t>
@@ -243,21 +246,34 @@
     <t>0</t>
   </si>
   <si>
-    <t>*</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t>Age at event</t>
+  </si>
+  <si>
+    <t>Age at the time of medical consultation</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -279,21 +295,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -309,10 +315,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -335,8 +337,8 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+    <t xml:space="preserve">Age
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -475,6 +477,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -663,14 +680,14 @@
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -811,7 +828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -830,7 +847,7 @@
         <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>74</v>
@@ -839,13 +856,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -902,24 +919,24 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -930,7 +947,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -942,13 +959,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -999,13 +1016,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1014,26 +1031,26 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1045,17 +1062,15 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>74</v>
@@ -1092,37 +1107,37 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1135,10 +1150,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1212,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1227,7 +1242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1318,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
@@ -1331,6 +1346,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK6">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
 </t>
   </si>
   <si>
-    <t>Age at event</t>
+    <t>Age at recruitment</t>
   </si>
   <si>
     <t>Age at the time of medical consultation</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-12T12:33:13+00:00</t>
+    <t>2023-08-01T16:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,117 +127,6 @@
   </si>
   <si>
     <t>element:ClinicalImpression</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -470,10 +359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -668,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -679,674 +568,559 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AI1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
+      <c r="AK1" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK6">
+  <autoFilter ref="A1:AK5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1356,7 +1130,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,117 @@
   </si>
   <si>
     <t>element:ClinicalImpression</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -557,7 +668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -568,559 +679,674 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AI1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>37</v>
+      <c r="K1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK5">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1130,7 +1356,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI4">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,7 +337,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Age
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -687,7 +687,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -238,9 +244,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -597,21 +600,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -659,6 +662,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -717,632 +728,632 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -688,42 +688,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:ClinicalImpression</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t>ID</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -839,7 +839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1358,12 +1358,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK6">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-AgeAtRecruitment.xlsx
+++ b/docs/StructureDefinition-AgeAtRecruitment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
